--- a/out.xlsx
+++ b/out.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr date1904="false"/>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
@@ -9,28 +9,37 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="none">
+        <bgColor/>
+      </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -38,14 +47,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color/>
+      </left>
+      <right style="thin">
+        <color/>
+      </right>
+      <top style="thin">
+        <color/>
+      </top>
+      <bottom style="thin">
+        <color/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color/>
+      </left>
+      <right style="thin">
+        <color/>
+      </right>
+      <top style="thin">
+        <color/>
+      </top>
+      <bottom style="thin">
+        <color/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="1" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -375,48 +425,248 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="40.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" t="str">
+      <c r="B1" s="3" t="str">
         <v>age</v>
       </c>
-      <c r="C1" t="str">
+      <c r="C1" s="3" t="str">
         <v>school</v>
       </c>
-      <c r="D1" t="str">
+      <c r="D1" s="3" t="str">
         <v>address</v>
       </c>
-      <c r="E1" t="str">
+      <c r="E1" s="3" t="str">
         <v>tel</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
+      <c r="A2" s="2" t="str">
         <v>张三</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>22</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2" s="4" t="str">
         <v>湖北工业大学</v>
       </c>
-      <c r="D2" t="str">
+      <c r="D2" s="4" t="str">
         <v>深圳</v>
       </c>
-      <c r="E2" t="str">
+      <c r="E2" s="4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C3" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D3" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E3" s="4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C4" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D4" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E4" s="4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C5" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D5" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E5" s="4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C6" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D6" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E6" s="4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C7" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D7" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E7" s="4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C8" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D8" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E8" s="4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C9" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D9" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E9" s="4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C10" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D10" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E10" s="4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C11" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D11" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E11" s="4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C12" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D12" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E12" s="4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C13" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D13" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E13" s="4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C14" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D14" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E14" s="4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C15" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D15" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E15" s="4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C16" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D16" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E16" s="4" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
-  </ignoredErrors>
 </worksheet>
 </file>